--- a/data/trona_attributes.xlsx
+++ b/data/trona_attributes.xlsx
@@ -8,14 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/john/Documents/University Work/summer work experience/Imperial College/FUSE/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCA50AF1-D3E6-0447-ADAB-7147BB50A490}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9E92E478-9FFF-1D46-B7EC-E3283BBEC6A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="460" yWindow="640" windowWidth="28040" windowHeight="16940" activeTab="1" xr2:uid="{C9AF6CAE-357F-3D42-82D9-1F26C7FFA336}"/>
+    <workbookView xWindow="460" yWindow="640" windowWidth="28040" windowHeight="16940" activeTab="5" xr2:uid="{C9AF6CAE-357F-3D42-82D9-1F26C7FFA336}"/>
   </bookViews>
   <sheets>
-    <sheet name="Monohydrate method" sheetId="1" r:id="rId1"/>
+    <sheet name="sequesquicarbonate method" sheetId="1" r:id="rId1"/>
     <sheet name="dry calciner" sheetId="2" r:id="rId2"/>
     <sheet name="dissolving vessel" sheetId="3" r:id="rId3"/>
+    <sheet name="Clarifyer" sheetId="6" r:id="rId4"/>
+    <sheet name="crystaliser" sheetId="5" r:id="rId5"/>
+    <sheet name="centrifuge" sheetId="7" r:id="rId6"/>
+    <sheet name="dehydration " sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="21">
   <si>
     <t>key</t>
   </si>
@@ -57,6 +61,48 @@
   </si>
   <si>
     <t>min</t>
+  </si>
+  <si>
+    <t>cm^3</t>
+  </si>
+  <si>
+    <t>density</t>
+  </si>
+  <si>
+    <t>https://www.google.com/search?q=density+of+trona&amp;oq=density+of+trona&amp;aqs=chrome..69i57j0i22i30.5632j1j1&amp;sourceid=chrome&amp;ie=UTF-8</t>
+  </si>
+  <si>
+    <t>Trona</t>
+  </si>
+  <si>
+    <t xml:space="preserve">key </t>
+  </si>
+  <si>
+    <t>efficiency</t>
+  </si>
+  <si>
+    <t>solution mining trona in turkey</t>
+  </si>
+  <si>
+    <t>crusher</t>
+  </si>
+  <si>
+    <t>dry calciner</t>
+  </si>
+  <si>
+    <t>dissolving vessel</t>
+  </si>
+  <si>
+    <t>centrifuge</t>
+  </si>
+  <si>
+    <t>dehydration</t>
+  </si>
+  <si>
+    <t>clarifier</t>
+  </si>
+  <si>
+    <t>crystallisation vessel</t>
   </si>
 </sst>
 </file>
@@ -408,24 +454,211 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DF3D09D9-8815-CD4C-B5DF-D3D6189844CE}">
-  <dimension ref="A1"/>
+  <dimension ref="A2:B9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B9">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{368381B5-E587-A84E-9BC8-3DC7133D7E8E}">
-  <dimension ref="A2:C5"/>
+  <dimension ref="A2:D6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>448</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>30</v>
+      </c>
+      <c r="C4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>848.2</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>2.13</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD9C21C7-0958-DA4D-ADE5-EF832760C23C}">
+  <dimension ref="A2:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B3" sqref="B3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>363.15</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE1953F2-06F8-5A43-9E99-994E067F14B6}">
+  <dimension ref="A2:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -443,7 +676,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>448</v>
+        <v>363.15</v>
       </c>
       <c r="C3" t="s">
         <v>5</v>
@@ -453,31 +686,107 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>30</v>
-      </c>
-      <c r="C4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD9C21C7-0958-DA4D-ADE5-EF832760C23C}">
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{497B4497-985C-C740-966B-B4F20D21C6FA}">
+  <dimension ref="A2:C4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>318.14999999999998</v>
+      </c>
+      <c r="C3" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{651554BA-8CC4-0143-A4DA-C7E48C84F2B3}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E32C8DFA-6B3D-1F4A-B940-27B8CC1259F7}">
+  <dimension ref="A2:B6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>